--- a/trend_results/Lakes/LakePauriComposite_10fe96c510.xlsx
+++ b/trend_results/Lakes/LakePauriComposite_10fe96c510.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
   <si>
     <t>site name</t>
   </si>
@@ -118,28 +118,25 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>Lake</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -524,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,37 +615,37 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.0120828077058336</v>
       </c>
       <c r="G2">
-        <v>0.0434782608695652</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H2">
-        <v>0.760869565217391</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>0.435219981668195</v>
+        <v>1.37643064894603</v>
       </c>
       <c r="L2">
-        <v>-2.6048451526467</v>
+        <v>0.454751196961762</v>
       </c>
       <c r="M2">
-        <v>1.17770436227026</v>
+        <v>3.22417357055154</v>
       </c>
       <c r="N2">
-        <v>3.48175985334556</v>
+        <v>12.5130058995094</v>
       </c>
       <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
       </c>
       <c r="Q2">
         <v>1779379.32093</v>
@@ -657,19 +654,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -689,34 +686,34 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.400179534239353</v>
+        <v>0.118494681610251</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.954545454545455</v>
+        <v>0.875</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.205</v>
+        <v>2.2</v>
       </c>
       <c r="K3">
-        <v>-0.0238329500715291</v>
+        <v>-0.131399061720026</v>
       </c>
       <c r="L3">
-        <v>-0.235781629355417</v>
+        <v>-0.355642373463537</v>
       </c>
       <c r="M3">
-        <v>0.152146514294899</v>
+        <v>0.0635109011469614</v>
       </c>
       <c r="N3">
-        <v>-1.08085941367479</v>
+        <v>-5.97268462363754</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
         <v>36</v>
@@ -728,19 +725,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
         <v>42</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>43</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>44</v>
       </c>
-      <c r="V3" t="s">
-        <v>45</v>
-      </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -760,19 +757,19 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>0.712145985679121</v>
+        <v>0.745514431451438</v>
       </c>
       <c r="G4">
-        <v>0.543478260869565</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="H4">
-        <v>0.152173913043478</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -787,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
         <v>37</v>
@@ -799,19 +796,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
         <v>42</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>43</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>44</v>
       </c>
-      <c r="V4" t="s">
-        <v>45</v>
-      </c>
       <c r="W4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -828,40 +825,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>0.0478916864050618</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.009090909090909</v>
+      </c>
+      <c r="K5">
+        <v>0.0024869825496865</v>
+      </c>
+      <c r="L5">
+        <v>2.89349431137206E-05</v>
+      </c>
+      <c r="M5">
+        <v>0.0053818222486162</v>
+      </c>
+      <c r="N5">
+        <v>27.3568080465524</v>
+      </c>
+      <c r="O5" t="s">
         <v>34</v>
       </c>
-      <c r="F5">
-        <v>0.290490752188922</v>
-      </c>
-      <c r="G5">
-        <v>0.470588235294118</v>
-      </c>
-      <c r="H5">
-        <v>0.588235294117647</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.0126198103773902</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0.0021421718628632</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>38</v>
       </c>
       <c r="Q5">
         <v>1779379.32093</v>
@@ -870,19 +867,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
         <v>42</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>44</v>
       </c>
-      <c r="V5" t="s">
-        <v>45</v>
-      </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -902,37 +899,37 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <v>0.001429969104232</v>
+        <v>0.004207729369001</v>
       </c>
       <c r="G6">
-        <v>0.304347826086957</v>
+        <v>0.254901960784314</v>
       </c>
       <c r="H6">
-        <v>0.695652173913043</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0325</v>
+        <v>0.033</v>
       </c>
       <c r="K6">
-        <v>0.0026785</v>
+        <v>0.0038032954343996</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0057265863427661</v>
+        <v>0.009464135888948901</v>
       </c>
       <c r="N6">
-        <v>8.241538461538459</v>
+        <v>11.525137679999</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>1779379.32093</v>
@@ -941,19 +938,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" t="s">
         <v>42</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>43</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>44</v>
       </c>
-      <c r="V6" t="s">
-        <v>45</v>
-      </c>
       <c r="W6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -967,43 +964,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
       <c r="F7">
-        <v>0.009526024488337901</v>
+        <v>0.786837228307796</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.953488372093023</v>
+        <v>0.92</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.75</v>
+        <v>7.73</v>
       </c>
       <c r="K7">
-        <v>-0.110681818181818</v>
+        <v>0.0175721649484535</v>
       </c>
       <c r="L7">
-        <v>-0.19572333558864</v>
+        <v>-0.0268913483616299</v>
       </c>
       <c r="M7">
-        <v>-0.0380218076102965</v>
+        <v>0.089624948788203</v>
       </c>
       <c r="N7">
-        <v>-1.42815249266862</v>
+        <v>0.227324255478052</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7">
         <v>1779379.32093</v>
@@ -1012,16 +1009,16 @@
         <v>5572535.10786</v>
       </c>
       <c r="S7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" t="s">
         <v>42</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>43</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>44</v>
-      </c>
-      <c r="V7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1041,37 +1038,37 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>0.0055515294622563</v>
+        <v>0.0023427374771628</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.695652173913043</v>
+        <v>0.745098039215686</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.015</v>
+        <v>1.02</v>
       </c>
       <c r="K8">
-        <v>0.0660271158586688</v>
+        <v>0.055340909090909</v>
       </c>
       <c r="L8">
-        <v>0.0266491217414021</v>
+        <v>0.0264834518625533</v>
       </c>
       <c r="M8">
-        <v>0.106462477285286</v>
+        <v>0.0895776815962978</v>
       </c>
       <c r="N8">
-        <v>6.50513456735654</v>
+        <v>5.42557932263814</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1779379.32093</v>
@@ -1080,19 +1077,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" t="s">
         <v>42</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>43</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>44</v>
       </c>
-      <c r="V8" t="s">
-        <v>45</v>
-      </c>
       <c r="W8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1112,37 +1109,37 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>0.001145864657748</v>
+        <v>0.0417664935677049</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.869565217391304</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0595</v>
+        <v>0.059</v>
       </c>
       <c r="K9">
-        <v>0.0083601026045777</v>
+        <v>0.0048290264423076</v>
       </c>
       <c r="L9">
-        <v>0.0040366085257241</v>
+        <v>0.000280154578287</v>
       </c>
       <c r="M9">
-        <v>0.0139344410449431</v>
+        <v>0.009309839700014</v>
       </c>
       <c r="N9">
-        <v>14.0505926127357</v>
+        <v>8.184790580182529</v>
       </c>
       <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
         <v>35</v>
-      </c>
-      <c r="P9" t="s">
-        <v>39</v>
       </c>
       <c r="Q9">
         <v>1779379.32093</v>
@@ -1151,19 +1148,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
         <v>42</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>43</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>44</v>
       </c>
-      <c r="V9" t="s">
-        <v>45</v>
-      </c>
       <c r="W9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1183,37 +1180,37 @@
         <v>32</v>
       </c>
       <c r="F10">
-        <v>0.0275326494138592</v>
+        <v>0.0049874350376884</v>
       </c>
       <c r="G10">
-        <v>0.0793650793650794</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="H10">
-        <v>0.698412698412698</v>
+        <v>0.657534246575342</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>0.7714187327823691</v>
+        <v>1.00619834710744</v>
       </c>
       <c r="L10">
-        <v>0.121071060030923</v>
+        <v>0.377993331930225</v>
       </c>
       <c r="M10">
-        <v>1.19645081359692</v>
+        <v>1.35247293177791</v>
       </c>
       <c r="N10">
-        <v>7.71418732782369</v>
+        <v>9.147257700976709</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q10">
         <v>1779379.32093</v>
@@ -1222,19 +1219,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s">
         <v>42</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>43</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>44</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>45</v>
-      </c>
-      <c r="W10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1242,7 +1239,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1251,37 +1248,37 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>0.828970220590822</v>
+        <v>0.851029260013592</v>
       </c>
       <c r="G11">
-        <v>0.491803278688525</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.180327868852459</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.043263639626705</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.0242815317555685</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.112701343386952</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.06017331555738</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
         <v>37</v>
@@ -1293,19 +1290,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
         <v>42</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>44</v>
       </c>
-      <c r="V11" t="s">
-        <v>45</v>
-      </c>
       <c r="W11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1313,37 +1310,37 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
       </c>
       <c r="F12">
-        <v>0.8126005828230241</v>
+        <v>0.605820608696696</v>
       </c>
       <c r="G12">
-        <v>0.253968253968254</v>
+        <v>0.492957746478873</v>
       </c>
       <c r="H12">
-        <v>0.73015873015873</v>
+        <v>0.183098591549296</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="J12">
-        <v>0.036</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0021604830585491</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1352,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>1779379.32093</v>
@@ -1364,19 +1361,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" t="s">
         <v>42</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>43</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>44</v>
       </c>
-      <c r="V12" t="s">
-        <v>45</v>
-      </c>
       <c r="W12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1384,49 +1381,49 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>0.20645093292578</v>
+        <v>0.782973139460434</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="H13">
-        <v>0.714285714285714</v>
+        <v>0.712328767123288</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>1.03</v>
+        <v>0.048</v>
       </c>
       <c r="K13">
-        <v>0.009329501915708799</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.0081307695370184</v>
+        <v>-0.001506970856492</v>
       </c>
       <c r="M13">
-        <v>0.0303761871910788</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.905776885020274</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q13">
         <v>1779379.32093</v>
@@ -1435,19 +1432,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s">
         <v>42</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>43</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>44</v>
       </c>
-      <c r="V13" t="s">
-        <v>45</v>
-      </c>
       <c r="W13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1455,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1467,37 +1464,37 @@
         <v>32</v>
       </c>
       <c r="F14">
-        <v>0.0140756127849203</v>
+        <v>0.230118048541223</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.777777777777778</v>
+        <v>0.6301369863013701</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.059</v>
+        <v>1.03</v>
       </c>
       <c r="K14">
-        <v>0.0025560773480663</v>
+        <v>0.0067389815045696</v>
       </c>
       <c r="L14">
-        <v>0.0006290894556553001</v>
+        <v>-0.008186413857231799</v>
       </c>
       <c r="M14">
-        <v>0.0049073543969517</v>
+        <v>0.0255792782710267</v>
       </c>
       <c r="N14">
-        <v>4.33233448824796</v>
+        <v>0.654270048987341</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q14">
         <v>1779379.32093</v>
@@ -1506,19 +1503,90 @@
         <v>5572535.10786</v>
       </c>
       <c r="S14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" t="s">
         <v>42</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>43</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>44</v>
       </c>
-      <c r="V14" t="s">
-        <v>45</v>
-      </c>
       <c r="W14" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>0.103403974599486</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.712328767123288</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.059</v>
+      </c>
+      <c r="K15">
+        <v>0.0013931570890172</v>
+      </c>
+      <c r="L15">
+        <v>-0.0004884410046076</v>
+      </c>
+      <c r="M15">
+        <v>0.0032480498105435</v>
+      </c>
+      <c r="N15">
+        <v>2.36128320172416</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15">
+        <v>1779379.32093</v>
+      </c>
+      <c r="R15">
+        <v>5572535.10786</v>
+      </c>
+      <c r="S15" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/LakePauriComposite_10fe96c510.xlsx
+++ b/trend_results/Lakes/LakePauriComposite_10fe96c510.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="52">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Pauri (Composite)</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
@@ -130,9 +136,6 @@
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Likely increasing</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>West_4</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,40 +618,40 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0.0120828077058336</v>
+        <v>0.0021807039997254</v>
       </c>
       <c r="G2">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.764705882352941</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>0.3718</v>
       </c>
       <c r="K2">
-        <v>1.37643064894603</v>
+        <v>0.0697042779489659</v>
       </c>
       <c r="L2">
-        <v>0.454751196961762</v>
+        <v>0.0117439803062936</v>
       </c>
       <c r="M2">
-        <v>3.22417357055154</v>
+        <v>0.290927893293003</v>
       </c>
       <c r="N2">
-        <v>12.5130058995094</v>
+        <v>18.7477885822931</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2">
         <v>1779379.32093</v>
@@ -654,19 +660,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -680,43 +686,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>0.118494681610251</v>
+        <v>0.0120828077058336</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H3">
-        <v>0.875</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>-0.131399061720026</v>
+        <v>1.37643064894603</v>
       </c>
       <c r="L3">
-        <v>-0.355642373463537</v>
+        <v>0.454751196961762</v>
       </c>
       <c r="M3">
-        <v>0.0635109011469614</v>
+        <v>3.22417357055154</v>
       </c>
       <c r="N3">
-        <v>-5.97268462363754</v>
+        <v>12.5130058995094</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3">
         <v>1779379.32093</v>
@@ -725,19 +731,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -757,37 +763,37 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>0.745514431451438</v>
+        <v>0.118494681610251</v>
       </c>
       <c r="G4">
-        <v>0.490196078431373</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.156862745098039</v>
+        <v>0.875</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.131399061720026</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.355642373463537</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0635109011469614</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-5.97268462363754</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4">
         <v>1779379.32093</v>
@@ -796,19 +802,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,40 +831,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>0.0478916864050618</v>
+        <v>0.745514431451438</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="H5">
+        <v>0.156862745098039</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>0.009090909090909</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>0.0024869825496865</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.89349431137206E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0053818222486162</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>27.3568080465524</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q5">
         <v>1779379.32093</v>
@@ -867,19 +873,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -893,43 +899,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="F6">
-        <v>0.004207729369001</v>
+        <v>0.0478916864050618</v>
       </c>
       <c r="G6">
-        <v>0.254901960784314</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.033</v>
+        <v>0.009090909090909</v>
       </c>
       <c r="K6">
-        <v>0.0038032954343996</v>
+        <v>0.0024869825496865</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.89349431137206E-05</v>
       </c>
       <c r="M6">
-        <v>0.009464135888948901</v>
+        <v>0.0053818222486162</v>
       </c>
       <c r="N6">
-        <v>11.525137679999</v>
+        <v>27.3568080465524</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1779379.32093</v>
@@ -938,19 +944,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -967,40 +973,40 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>0.786837228307796</v>
+        <v>0.004207729369001</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.254901960784314</v>
       </c>
       <c r="H7">
-        <v>0.92</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>7.73</v>
+        <v>0.033</v>
       </c>
       <c r="K7">
-        <v>0.0175721649484535</v>
+        <v>0.0038032954343996</v>
       </c>
       <c r="L7">
-        <v>-0.0268913483616299</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.089624948788203</v>
+        <v>0.009464135888948901</v>
       </c>
       <c r="N7">
-        <v>0.227324255478052</v>
+        <v>11.525137679999</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q7">
         <v>1779379.32093</v>
@@ -1009,16 +1015,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="W7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1032,43 +1041,43 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>0.0023427374771628</v>
+        <v>0.786837228307796</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.745098039215686</v>
+        <v>0.92</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.02</v>
+        <v>7.73</v>
       </c>
       <c r="K8">
-        <v>0.055340909090909</v>
+        <v>0.0175721649484535</v>
       </c>
       <c r="L8">
-        <v>0.0264834518625533</v>
+        <v>-0.0268913483616299</v>
       </c>
       <c r="M8">
-        <v>0.0895776815962978</v>
+        <v>0.089624948788203</v>
       </c>
       <c r="N8">
-        <v>5.42557932263814</v>
+        <v>0.227324255478052</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>1779379.32093</v>
@@ -1077,19 +1086,16 @@
         <v>5572535.10786</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1106,40 +1112,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>0.0417664935677049</v>
+        <v>0.0023427374771628</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.823529411764706</v>
+        <v>0.745098039215686</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.059</v>
+        <v>1.02</v>
       </c>
       <c r="K9">
-        <v>0.0048290264423076</v>
+        <v>0.055340909090909</v>
       </c>
       <c r="L9">
-        <v>0.000280154578287</v>
+        <v>0.0264834518625533</v>
       </c>
       <c r="M9">
-        <v>0.009309839700014</v>
+        <v>0.0895776815962978</v>
       </c>
       <c r="N9">
-        <v>8.184790580182529</v>
+        <v>5.42557932263814</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q9">
         <v>1779379.32093</v>
@@ -1148,19 +1154,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,49 +1174,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.0049874350376884</v>
+        <v>0.0417664935677049</v>
       </c>
       <c r="G10">
-        <v>0.0821917808219178</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.657534246575342</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>0.059</v>
       </c>
       <c r="K10">
-        <v>1.00619834710744</v>
+        <v>0.0048290264423076</v>
       </c>
       <c r="L10">
-        <v>0.377993331930225</v>
+        <v>0.000280154578287</v>
       </c>
       <c r="M10">
-        <v>1.35247293177791</v>
+        <v>0.009309839700014</v>
       </c>
       <c r="N10">
-        <v>9.147257700976709</v>
+        <v>8.184790580182529</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <v>1779379.32093</v>
@@ -1219,19 +1225,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1245,43 +1251,43 @@
         <v>10</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>0.851029260013592</v>
+        <v>0.0049874350376884</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="H11">
-        <v>0.818181818181818</v>
+        <v>0.657534246575342</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="K11">
-        <v>0.043263639626705</v>
+        <v>1.00619834710744</v>
       </c>
       <c r="L11">
-        <v>-0.0242815317555685</v>
+        <v>0.377993331930225</v>
       </c>
       <c r="M11">
-        <v>0.112701343386952</v>
+        <v>1.35247293177791</v>
       </c>
       <c r="N11">
-        <v>2.06017331555738</v>
+        <v>9.147257700976709</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11">
         <v>1779379.32093</v>
@@ -1290,19 +1296,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1322,37 +1328,37 @@
         <v>33</v>
       </c>
       <c r="F12">
-        <v>0.605820608696696</v>
+        <v>0.851029260013592</v>
       </c>
       <c r="G12">
-        <v>0.492957746478873</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.183098591549296</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.043263639626705</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0242815317555685</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.112701343386952</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.06017331555738</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12">
         <v>1779379.32093</v>
@@ -1361,19 +1367,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,37 +1387,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>0.605820608696696</v>
+      </c>
+      <c r="G13">
+        <v>0.492957746478873</v>
+      </c>
+      <c r="H13">
+        <v>0.183098591549296</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13">
-        <v>0.782973139460434</v>
-      </c>
-      <c r="G13">
-        <v>0.232876712328767</v>
-      </c>
-      <c r="H13">
-        <v>0.712328767123288</v>
-      </c>
-      <c r="I13">
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="J13">
-        <v>0.048</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.001506970856492</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1420,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q13">
         <v>1779379.32093</v>
@@ -1432,19 +1438,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,49 +1458,49 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>0.230118048541223</v>
+        <v>0.782973139460434</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="H14">
-        <v>0.6301369863013701</v>
+        <v>0.712328767123288</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>1.03</v>
+        <v>0.048</v>
       </c>
       <c r="K14">
-        <v>0.0067389815045696</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-0.008186413857231799</v>
+        <v>-0.001506970856492</v>
       </c>
       <c r="M14">
-        <v>0.0255792782710267</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.654270048987341</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q14">
         <v>1779379.32093</v>
@@ -1503,19 +1509,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="S14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1532,40 +1538,40 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>0.103403974599486</v>
+        <v>0.230118048541223</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.712328767123288</v>
+        <v>0.6301369863013701</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.059</v>
+        <v>1.03</v>
       </c>
       <c r="K15">
-        <v>0.0013931570890172</v>
+        <v>0.0067389815045696</v>
       </c>
       <c r="L15">
-        <v>-0.0004884410046076</v>
+        <v>-0.008186413857231799</v>
       </c>
       <c r="M15">
-        <v>0.0032480498105435</v>
+        <v>0.0255792782710267</v>
       </c>
       <c r="N15">
-        <v>2.36128320172416</v>
+        <v>0.654270048987341</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q15">
         <v>1779379.32093</v>
@@ -1574,19 +1580,90 @@
         <v>5572535.10786</v>
       </c>
       <c r="S15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>0.103403974599486</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.712328767123288</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.059</v>
+      </c>
+      <c r="K16">
+        <v>0.0013931570890172</v>
+      </c>
+      <c r="L16">
+        <v>-0.0004884410046076</v>
+      </c>
+      <c r="M16">
+        <v>0.0032480498105435</v>
+      </c>
+      <c r="N16">
+        <v>2.36128320172416</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16">
+        <v>1779379.32093</v>
+      </c>
+      <c r="R16">
+        <v>5572535.10786</v>
+      </c>
+      <c r="S16" t="s">
         <v>42</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T16" t="s">
         <v>43</v>
       </c>
-      <c r="V15" t="s">
+      <c r="U16" t="s">
         <v>44</v>
       </c>
-      <c r="W15" t="s">
-        <v>49</v>
+      <c r="V16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
